--- a/biology/Écologie/Lee_R._Dice/Lee_R._Dice.xlsx
+++ b/biology/Écologie/Lee_R._Dice/Lee_R._Dice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lee Raymond Dice, né le 15 juillet 1887 et mort le 31 janvier 1977 est un écologue et généticien américain qui a enseigné à l'Université du Michigan pendant presque toute sa carrière[1],[2]. Il a enseigné à l'Université du Michigan pendant 38 ans, période au cours de laquelle il a fondé la division de l'hérédité de l'université et a été directeur de l'Institut de biologie humaine[3], dont il est le fondateur. Il a été président de la Société américaine d'écologie de 1952 à 1953 et a reçu le prix Eminent Ecologist Award en 1964[2],[4].
-Il est connu pour avoir développé indépendamment le coefficient de Sørensen-Dice[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee Raymond Dice, né le 15 juillet 1887 et mort le 31 janvier 1977 est un écologue et généticien américain qui a enseigné à l'Université du Michigan pendant presque toute sa carrière,. Il a enseigné à l'Université du Michigan pendant 38 ans, période au cours de laquelle il a fondé la division de l'hérédité de l'université et a été directeur de l'Institut de biologie humaine, dont il est le fondateur. Il a été président de la Société américaine d'écologie de 1952 à 1953 et a reçu le prix Eminent Ecologist Award en 1964,.
+Il est connu pour avoir développé indépendamment le coefficient de Sørensen-Dice.
 </t>
         </is>
       </c>
